--- a/BBDD/FUENTE DE DATOS.xlsx
+++ b/BBDD/FUENTE DE DATOS.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raulalgora/Desktop/MDA/SQL/SQLazo/BBDD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620FB0E3-4107-3F40-98AA-25A0917DDE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="FUENTE DE DATOS" sheetId="1" r:id="rId4"/>
+    <sheet name="FUENTE DE DATOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,24 +45,30 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Precios historicos de vivienda desglosados por:
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- Barrio o zona</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Es clave para identificar diferencias geográficas.</t>
     </r>
@@ -61,39 +76,49 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Idealista Data</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Puede requerir permisos o pago, pero tiene información muy precisa.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Gobierno Abierto de Valencia</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Busca datos locales históricos sobre precios.
 Alternativa: Si no encuentras datos específicos, usa datos generales de España desde el INE y filtra por la Comunidad Valenciana.</t>
@@ -105,16 +130,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- Características de la vivienda</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Tamaño en m², número de habitaciones, antigüedad, etc.</t>
     </r>
@@ -131,24 +160,30 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Información sobre la población de Valencia, por barrio o distrito:
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ingresos medios</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Las zonas con mayor renta suelen tener precios más altos.</t>
     </r>
@@ -156,85 +191,102 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">INE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(Instituto Nacional de Estadística): Encuestas de población y renta.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Datos.gob.es</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Busca datos de censos o estadísticas locales.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Gobierno Abierto de Valencia</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Estadísticas demográficas locales.</t>
     </r>
   </si>
   <si>
-    <t>Renta media</t>
-  </si>
-  <si>
     <t>Precio medio de alquiler por distrito</t>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Densidad de población</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Barrios densos pueden tener precios más bajos por menor calidad de vida.</t>
     </r>
@@ -245,23 +297,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Nivel educativo o índice de empleo</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Relacionado con la capacidad económica de los compradores.</t>
     </r>
@@ -275,24 +333,30 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Distancia o accesibilidad a infraestructuras clave:
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Centros educativos</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Proximidad a colegios y universidades.</t>
     </r>
@@ -300,55 +364,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Google Places API</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Para obtener ubicaciones de servicios clave.
  - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OpenStreetMap</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Datos abiertos sobre infraestructuras.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Valencia Open Data</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Información local sobre infraestructuras.</t>
     </r>
@@ -359,16 +437,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Hospitales y centros de salud</t>
     </r>
@@ -379,23 +461,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Transporte público</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Paradas de autobús, metro, estaciones de tren.</t>
     </r>
@@ -415,23 +503,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Zonas verdes</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Parques y áreas recreativas.</t>
     </r>
@@ -448,24 +542,30 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Información sobre la oferta y demanda de viviendas:
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Número de viviendas disponibles</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> en cada zona.</t>
     </r>
@@ -473,55 +573,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Idealista</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Número de viviendas en oferta.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>INE</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Estadísticas de mercado inmobiliario.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Valencia Open Data</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Información sobre stock de vivienda.</t>
     </r>
@@ -529,23 +643,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Tasa de compra o alquiler</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Porcentaje de viviendas vendidas o alquiladas.</t>
     </r>
@@ -553,23 +673,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Tasa de vacantes</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Viviendas desocupadas.</t>
     </r>
@@ -580,17 +706,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Indicadores sobre la calidad de vida en cada barrio:
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Índices de criminalidad</t>
     </r>
@@ -598,39 +728,49 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ministerio del Interior de España</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Estadísticas de criminalidad.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Valencia Open Data</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Información local sobre actividad comercial y turística.</t>
     </r>
@@ -638,16 +778,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- Actividad comercial</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Número de comercios, restaurantes, etc.</t>
     </r>
@@ -655,23 +799,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Zonas turísticas</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Lugares con alto flujo de visitantes.</t>
     </r>
@@ -682,24 +832,30 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Información geográfica que pueda incluir:
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Coordenadas exactas </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>de cada barrio o vivienda.</t>
     </r>
@@ -707,39 +863,49 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Google Maps API</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Para calcular distancias o ubicaciones.
 - </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OpenStreetMap</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Información geoespacial gratuita.</t>
     </r>
@@ -747,23 +913,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Distancias a puntos clave</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Centro de la ciudad, playas, etc.</t>
     </r>
@@ -771,23 +943,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mapas de zonas de interés</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Como las zonas históricas o de alta densidad.</t>
     </r>
@@ -812,42 +990,89 @@
   </si>
   <si>
     <t>Datos geoespaciales: Coordenadas y distancias.</t>
+  </si>
+  <si>
+    <t>renta media por distrito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -855,7 +1080,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -871,61 +1096,64 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -934,9 +1162,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -945,70 +1175,85 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1198,27 +1443,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="77.0"/>
-    <col customWidth="1" min="3" max="3" width="97.63"/>
-    <col customWidth="1" min="4" max="4" width="28.75"/>
-    <col customWidth="1" min="5" max="5" width="16.0"/>
-    <col customWidth="1" min="7" max="7" width="35.38"/>
+    <col min="2" max="2" width="77" customWidth="1"/>
+    <col min="3" max="3" width="97.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,380 +1485,375 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="b">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="b">
+    </row>
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="b">
+      <c r="C9" s="10"/>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6" t="b">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6" t="b">
+      <c r="C12" s="14"/>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6" t="b">
+      <c r="C13" s="14"/>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="5" t="s">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="b">
+      <c r="E14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="5" t="s">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="b">
+      <c r="E15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6" t="b">
+      <c r="E16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="5" t="s">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="6" t="b">
+      <c r="C17" s="14"/>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="8" t="b">
+      <c r="C21" s="14"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="6" t="s">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="b">
+      <c r="C22" s="10"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="6" t="s">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="b">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="b">
+      <c r="C25" s="14"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="6" t="s">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="b">
+      <c r="C26" s="10"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="6" t="s">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="b">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="b">
+      <c r="C29" s="14"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="6" t="s">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="b">
+      <c r="C30" s="10"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="6" t="s">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="17" t="s">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="17" t="s">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="17" t="s">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="17" t="s">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="17" t="s">
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="8" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="B3:E3"/>
@@ -1618,25 +1863,30 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="G7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D11"/>
-    <hyperlink r:id="rId10" ref="D12"/>
-    <hyperlink r:id="rId11" ref="D13"/>
-    <hyperlink r:id="rId12" ref="D14"/>
-    <hyperlink r:id="rId13" ref="D15"/>
-    <hyperlink r:id="rId14" ref="D16"/>
-    <hyperlink r:id="rId15" ref="D17"/>
-    <hyperlink r:id="rId16" ref="D18"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{E339AD41-982C-A647-A198-411375F984A8}"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>